--- a/biology/Histoire de la zoologie et de la botanique/Osvaldo_Morrone/Osvaldo_Morrone.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Osvaldo_Morrone/Osvaldo_Morrone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osvaldo Morrone (1957-2011) est un biologiste, professeur, conservateur et botaniste argentin.
 Son thème central de recherche était la taxinomie des Poaceae (graminées).
@@ -514,7 +526,9 @@
           <t>Enseignement et recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chercheur indépendant du CONICET (en) (Consejo Nacional de Investigaciones Científicas y Técnicas),
 Conservateur de l'Instituto de Botánica Darwinion (es) (IBODA),
@@ -547,9 +561,11 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Poaceae) Axonopus morronei Gir.-Cañas[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Poaceae) Axonopus morronei Gir.-Cañas</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Articles publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) ZULOAGA, Fernando O., MORRONE, Osvaldo, BELGRANO, Manuel J. 2007. Taxonomical and nomenclatural novelties for the Vascular Flora of the Southern Cone of South America. Darwiniana 45 (2): 236-241  (ISSN 0011-6793)
 (en) FILGUEIRAS, Tarciso S, DAVIDSE, Gerrit, ZULOAGA, Fernando O, MORRONE, Osvaldo, Fernando Omar ZULOAGA. 2001. The establishment of the new genus altoparadisium and a reevaluation of arthropogon (Poaceae, Paniceae). Missouri Botanical Garden. Annals 88 ; 351 - 371
